--- a/Conductor y Vehiculo - Soltrej_normalized.xlsx
+++ b/Conductor y Vehiculo - Soltrej_normalized.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evertosilva/Desktop/carrier_script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB95089C-0975-3948-9F05-AE176AB9A9C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1813DC-01C6-E048-8E46-27A64A14A3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1840" windowWidth="28040" windowHeight="17360" xr2:uid="{B3194D0D-2E9F-3443-A6BD-B6B77034C400}"/>
+    <workbookView xWindow="5180" yWindow="1840" windowWidth="28040" windowHeight="17360" activeTab="1" xr2:uid="{B3194D0D-2E9F-3443-A6BD-B6B77034C400}"/>
   </bookViews>
   <sheets>
     <sheet name="Conductores ya registrados" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
   <si>
     <t>MAJA010613HMCRSNA7</t>
   </si>
@@ -121,6 +121,39 @@
   </si>
   <si>
     <t>Licencia de conductor</t>
+  </si>
+  <si>
+    <t>Año de Vehículo</t>
+  </si>
+  <si>
+    <t>Código de configuración del vehículo</t>
+  </si>
+  <si>
+    <t>Tipo de vehículo</t>
+  </si>
+  <si>
+    <t>ACTIVO</t>
+  </si>
+  <si>
+    <t>5310ZP</t>
+  </si>
+  <si>
+    <t>VL</t>
+  </si>
+  <si>
+    <t>LARGE VAN</t>
+  </si>
+  <si>
+    <t>5311ZP</t>
+  </si>
+  <si>
+    <t>LC29843</t>
+  </si>
+  <si>
+    <t>LD60675</t>
+  </si>
+  <si>
+    <t>Placa de Vehiculo</t>
   </si>
 </sst>
 </file>
@@ -162,9 +195,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,7 +517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{009B4ADD-8AE1-5B4C-BF6D-4BB585D3788A}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -654,14 +690,110 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A80F88C1-45F8-F944-8C30-4DF733A6927B}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>